--- a/Webscraping with BeautifulSoup/Test2.xlsx
+++ b/Webscraping with BeautifulSoup/Test2.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,43 +356,39 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Gründungsjahr</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
+          <t>Stammdaten</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ticker</t>
+          <t>Gründungsjahr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>APC</t>
+          <t>1976</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gelistet seit</t>
+          <t>Ticker</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>APC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nennwert / Aktie</t>
+          <t>Gelistet seit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -404,152 +400,232 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>Nennwert / Aktie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Währung</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Branche</t>
+          <t>Währung</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Computer-Hardware</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aktientyp</t>
+          <t>Branche</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Auslandsaktie</t>
+          <t>Computer-Hardware</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sektor</t>
+          <t>Aktientyp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Technologie</t>
+          <t>Auslandsaktie</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gattung</t>
+          <t>Sektor</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stammaktie</t>
+          <t>Technologie</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adresse</t>
+          <t>Gattung</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Apple Inc.One Apple Park Way  Cupertino, California 95014, USA</t>
+          <t>Stammaktie</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Telefon</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>+1-408-996-1010</t>
-        </is>
-      </c>
+          <t>Kontakt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fax</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Apple Inc.One Apple Park Way  Cupertino, California 95014, USA</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Telefon</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.apple.com/about/</t>
+          <t>+1-408-996-1010</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IR Telefon</t>
+          <t>Fax</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>+1-408-974-5420</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IR E-Mail</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>paxton1@apple.com</t>
+          <t>http://www.apple.com/about/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>IR Telefon</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>+1-408-974-5420</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IR E-Mail</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>paxton1@apple.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Kontaktperson</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Nancy Paxton</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Termine 2020</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28.01.2020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ergebnis 1.Quartal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>13.02.2020</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dividendenauszahlung</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>26.02.2020</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hauptversammlung</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>30.04.2020</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ergebnis Halbjahr</t>
         </is>
       </c>
     </row>
